--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A147C-25F7-41ED-9628-77F8A973AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A91865D-C4CD-4E39-A2E9-983884A50019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3110" windowWidth="21900" windowHeight="14640" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
+    <workbookView xWindow="23090" yWindow="5090" windowWidth="25480" windowHeight="13910" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -402,6 +402,294 @@
   </si>
   <si>
     <t>Postal Savings Bank of China</t>
+  </si>
+  <si>
+    <t>Zurich Insurance</t>
+  </si>
+  <si>
+    <t>ZURN SW</t>
+  </si>
+  <si>
+    <t>AXA</t>
+  </si>
+  <si>
+    <t>CS FP</t>
+  </si>
+  <si>
+    <t>BNP Paribas</t>
+  </si>
+  <si>
+    <t>BNP FP</t>
+  </si>
+  <si>
+    <t>London Stock Exchange</t>
+  </si>
+  <si>
+    <t>LSEG LN</t>
+  </si>
+  <si>
+    <t>Bank of Nova Scotia</t>
+  </si>
+  <si>
+    <t>BNS CN</t>
+  </si>
+  <si>
+    <t>Bank of New York Mellon</t>
+  </si>
+  <si>
+    <t>BK US</t>
+  </si>
+  <si>
+    <t>Truist Financial</t>
+  </si>
+  <si>
+    <t>TFC US</t>
+  </si>
+  <si>
+    <t>Simon Property Group</t>
+  </si>
+  <si>
+    <t>SPG US</t>
+  </si>
+  <si>
+    <t>CIBC</t>
+  </si>
+  <si>
+    <t>CM CN</t>
+  </si>
+  <si>
+    <t>Aflac</t>
+  </si>
+  <si>
+    <t>AFL US</t>
+  </si>
+  <si>
+    <t>Metlife</t>
+  </si>
+  <si>
+    <t>MET US</t>
+  </si>
+  <si>
+    <t>Macquarie</t>
+  </si>
+  <si>
+    <t>MQG AU</t>
+  </si>
+  <si>
+    <t>Life Insurance Corporation</t>
+  </si>
+  <si>
+    <t>LICI IN</t>
+  </si>
+  <si>
+    <t>Digital Reality Trust</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>Travelers Companies</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>Citic Securities</t>
+  </si>
+  <si>
+    <t>600030 CH</t>
+  </si>
+  <si>
+    <t>Itau Unibanco</t>
+  </si>
+  <si>
+    <t>ITUB4 BZ</t>
+  </si>
+  <si>
+    <t>The Saudi National Bank</t>
+  </si>
+  <si>
+    <t>SNB AB</t>
+  </si>
+  <si>
+    <t>ING Groep NV</t>
+  </si>
+  <si>
+    <t>INGA NA</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>BARC LN</t>
+  </si>
+  <si>
+    <t>Ameriprise Financial</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Manulife Financial</t>
+  </si>
+  <si>
+    <t>MFC CN</t>
+  </si>
+  <si>
+    <t>Allstate</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Swiss Re</t>
+  </si>
+  <si>
+    <t>SREN SW</t>
+  </si>
+  <si>
+    <t>Lloyds Banking Group</t>
+  </si>
+  <si>
+    <t>LLOY LN</t>
+  </si>
+  <si>
+    <t>DFS US</t>
+  </si>
+  <si>
+    <t>Credit Agricole SA</t>
+  </si>
+  <si>
+    <t>ACA FP</t>
+  </si>
+  <si>
+    <t>Discover Financial</t>
+  </si>
+  <si>
+    <t>DBS Group</t>
+  </si>
+  <si>
+    <t>DBS SP</t>
+  </si>
+  <si>
+    <t>Brookfield Asset</t>
+  </si>
+  <si>
+    <t>BAM CN</t>
+  </si>
+  <si>
+    <t>People's Insurance Co</t>
+  </si>
+  <si>
+    <t>1339 HK</t>
+  </si>
+  <si>
+    <t>China Pacific Insurance</t>
+  </si>
+  <si>
+    <t>601601 CH</t>
+  </si>
+  <si>
+    <t>Deutsche Bank AG</t>
+  </si>
+  <si>
+    <t>DBK GR</t>
+  </si>
+  <si>
+    <t>Prudential</t>
+  </si>
+  <si>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>Picc Property &amp; Casualty</t>
+  </si>
+  <si>
+    <t>2328 HK</t>
+  </si>
+  <si>
+    <t>Bank Rakyat Indonesia</t>
+  </si>
+  <si>
+    <t>BBRI IJ</t>
+  </si>
+  <si>
+    <t>Axis Bank Ltd</t>
+  </si>
+  <si>
+    <t>AXSB IN</t>
+  </si>
+  <si>
+    <t>National Bank of Canada</t>
+  </si>
+  <si>
+    <t>NA CN</t>
+  </si>
+  <si>
+    <t>Fairfax Financial</t>
+  </si>
+  <si>
+    <t>FFH CN</t>
+  </si>
+  <si>
+    <t>CITIC Ltd</t>
+  </si>
+  <si>
+    <t>267 HK</t>
+  </si>
+  <si>
+    <t>Raymond James</t>
+  </si>
+  <si>
+    <t>RJF</t>
+  </si>
+  <si>
+    <t>M &amp; T Bank</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>Invest Bank</t>
+  </si>
+  <si>
+    <t>INVESTB UH</t>
+  </si>
+  <si>
+    <t>DNB Bank ASA</t>
+  </si>
+  <si>
+    <t>DNB NO</t>
+  </si>
+  <si>
+    <t>Sun Life Financial</t>
+  </si>
+  <si>
+    <t>SLF CN</t>
+  </si>
+  <si>
+    <t>Amfin Financial</t>
+  </si>
+  <si>
+    <t>AFNL</t>
+  </si>
+  <si>
+    <t>Societe Generale</t>
+  </si>
+  <si>
+    <t>GLE FP</t>
+  </si>
+  <si>
+    <t>Ping An Bank</t>
+  </si>
+  <si>
+    <t>000001 CH</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>FITB</t>
   </si>
 </sst>
 </file>
@@ -790,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF8623-5B54-4CE6-BCB2-9CCCB813A218}">
-  <dimension ref="A2:P56"/>
+  <dimension ref="A2:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1447,6 +1735,534 @@
         <v>120</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A91865D-C4CD-4E39-A2E9-983884A50019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA778F2-69C4-4837-A868-3712ACD55AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23090" yWindow="5090" windowWidth="25480" windowHeight="13910" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
+    <workbookView xWindow="16410" yWindow="1640" windowWidth="21490" windowHeight="10580" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -690,6 +690,18 @@
   </si>
   <si>
     <t>FITB</t>
+  </si>
+  <si>
+    <t>Arthur Gallagher</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>Intesa Sanpaolo</t>
+  </si>
+  <si>
+    <t>ISP IM</t>
   </si>
 </sst>
 </file>
@@ -1078,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF8623-5B54-4CE6-BCB2-9CCCB813A218}">
-  <dimension ref="A2:P104"/>
+  <dimension ref="A2:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2275,28 @@
         <v>217</v>
       </c>
     </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA778F2-69C4-4837-A868-3712ACD55AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D79919-5FC1-421F-AE27-59F85FFA18C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="1640" windowWidth="21490" windowHeight="10580" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="282">
   <si>
     <t>Name</t>
   </si>
@@ -702,19 +702,259 @@
   </si>
   <si>
     <t>ISP IM</t>
+  </si>
+  <si>
+    <t>Bank of Communications</t>
+  </si>
+  <si>
+    <t>3328 HK</t>
+  </si>
+  <si>
+    <t>Bank Central Asia</t>
+  </si>
+  <si>
+    <t>BBCA IJ</t>
+  </si>
+  <si>
+    <t>Industrial Bank Co</t>
+  </si>
+  <si>
+    <t>601166 CH</t>
+  </si>
+  <si>
+    <t>Ares Management</t>
+  </si>
+  <si>
+    <t>ARES</t>
+  </si>
+  <si>
+    <t>Oversea-Chinese Banking Corp</t>
+  </si>
+  <si>
+    <t>OCBC SP</t>
+  </si>
+  <si>
+    <t>China Citic Bank</t>
+  </si>
+  <si>
+    <t>998 HK</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra Bank</t>
+  </si>
+  <si>
+    <t>KMB IN</t>
+  </si>
+  <si>
+    <t>First Abu Dhabi Bank</t>
+  </si>
+  <si>
+    <t>FAB UH</t>
+  </si>
+  <si>
+    <t>CBRE Group</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>Nordea Bank</t>
+  </si>
+  <si>
+    <t>NDA FH</t>
+  </si>
+  <si>
+    <t>Qatar Nationa Bank</t>
+  </si>
+  <si>
+    <t>QNBK QD</t>
+  </si>
+  <si>
+    <t>Kuwait Finance House</t>
+  </si>
+  <si>
+    <t>KFH KK</t>
+  </si>
+  <si>
+    <t>EQT SS</t>
+  </si>
+  <si>
+    <t>EQT AB</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Emirates NBD PJSC</t>
+  </si>
+  <si>
+    <t>EMIRATES UH</t>
+  </si>
+  <si>
+    <t>KBC Group</t>
+  </si>
+  <si>
+    <t>KBC BB</t>
+  </si>
+  <si>
+    <t>Intact Financial Corp</t>
+  </si>
+  <si>
+    <t>BOC Hong Kong Holdings</t>
+  </si>
+  <si>
+    <t>2388 HK</t>
+  </si>
+  <si>
+    <t>Blue Owl Capital</t>
+  </si>
+  <si>
+    <t>OWL</t>
+  </si>
+  <si>
+    <t>MS&amp;AD Insurance Group</t>
+  </si>
+  <si>
+    <t>8725 JP</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv</t>
+  </si>
+  <si>
+    <t>BJFIN IN</t>
+  </si>
+  <si>
+    <t>Arch Capital</t>
+  </si>
+  <si>
+    <t>ACGL</t>
+  </si>
+  <si>
+    <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t>STAN LN</t>
+  </si>
+  <si>
+    <t>Great-West Lifeco</t>
+  </si>
+  <si>
+    <t>GWO CN</t>
+  </si>
+  <si>
+    <t>AIA Group</t>
+  </si>
+  <si>
+    <t>1299 HK</t>
+  </si>
+  <si>
+    <t>Muenchener Rueckver</t>
+  </si>
+  <si>
+    <t>MUV2 GR</t>
+  </si>
+  <si>
+    <t>Tokio Marine</t>
+  </si>
+  <si>
+    <t>8766 JP</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>NU Holdings</t>
+  </si>
+  <si>
+    <t>Bajaj Finance</t>
+  </si>
+  <si>
+    <t>BAF IN</t>
+  </si>
+  <si>
+    <t>ANZ Group</t>
+  </si>
+  <si>
+    <t>ANZ AU</t>
+  </si>
+  <si>
+    <t>Generali</t>
+  </si>
+  <si>
+    <t>G IM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -749,19 +989,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{49A7B0E1-ADD0-4864-B180-4EAB8AA15CE3}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1090,23 +1342,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF8623-5B54-4CE6-BCB2-9CCCB813A218}">
-  <dimension ref="A2:P106"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1263,7 +1520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1274,7 +1531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1296,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1318,7 +1575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1340,7 +1597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -1527,7 +1784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1806,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1872,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -1626,7 +1883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1927,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -1681,7 +1938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1949,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +1960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1747,7 +2004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +2015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +2026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +2037,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +2048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +2059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +2070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +2081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +2092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +2103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +2114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +2125,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +2136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +2147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +2158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +2169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -1923,7 +2180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +2191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +2202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +2213,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +2224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +2235,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +2246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +2257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2268,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2290,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
@@ -2044,7 +2301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2312,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
@@ -2066,7 +2323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2334,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2356,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -2110,7 +2367,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -2121,7 +2378,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +2400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2411,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2422,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -2176,7 +2433,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -2187,7 +2444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -2198,7 +2455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -2209,7 +2466,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2477,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2488,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -2242,7 +2499,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
@@ -2253,7 +2510,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2532,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2543,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>17</v>
       </c>
@@ -2295,6 +2552,336 @@
       </c>
       <c r="C106" s="1" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D79919-5FC1-421F-AE27-59F85FFA18C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA12B3C-794D-41C5-BC86-D17C5025BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="298">
   <si>
     <t>Name</t>
   </si>
@@ -882,19 +882,109 @@
   </si>
   <si>
     <t>G IM</t>
+  </si>
+  <si>
+    <t>3I Group</t>
+  </si>
+  <si>
+    <t>III LN</t>
+  </si>
+  <si>
+    <t>Deutsche Boerse AG</t>
+  </si>
+  <si>
+    <t>DB1 GR</t>
+  </si>
+  <si>
+    <t>Reality Income</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Natwest Group</t>
+  </si>
+  <si>
+    <t>NWG LN</t>
+  </si>
+  <si>
+    <t>Goodman Group</t>
+  </si>
+  <si>
+    <t>GMG AU</t>
+  </si>
+  <si>
+    <t>Partners Group</t>
+  </si>
+  <si>
+    <t>PGHN SW</t>
+  </si>
+  <si>
+    <t>Shanghai Pudong Development Bank</t>
+  </si>
+  <si>
+    <t>600000 CH</t>
+  </si>
+  <si>
+    <t>LivCK15</t>
+  </si>
+  <si>
+    <t>LIVCK15 MM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -989,13 +1079,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,13 +1439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF8623-5B54-4CE6-BCB2-9CCCB813A218}">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomRight" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2884,6 +2981,94 @@
         <v>281</v>
       </c>
     </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA12B3C-794D-41C5-BC86-D17C5025BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE92DE5-9E6E-467F-83E7-FEC5034708E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" xr2:uid="{3687A38D-85AB-4B0C-A98C-9447CB1FB820}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -930,19 +930,31 @@
   </si>
   <si>
     <t>LIVCK15 MM</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>FNMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1079,13 +1091,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1439,13 +1452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF8623-5B54-4CE6-BCB2-9CCCB813A218}">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D144" sqref="D144"/>
+      <selection pane="bottomRight" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3069,6 +3082,17 @@
         <v>297</v>
       </c>
     </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
